--- a/biology/Botanique/Triumfetta_pentandra/Triumfetta_pentandra.xlsx
+++ b/biology/Botanique/Triumfetta_pentandra/Triumfetta_pentandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triumfetta pentandra A. Rich, aussi appelée « Lapullier à 5 étamines », est une espèce végétale de la famille des Malvaceae. Cette plante annuelle herbacée ou arbuste pérenne se retrouve dans la plupart des régions sèches d'Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Triumfetta pentandra A. Rich, aussi appelée « Lapullier à 5 étamines », est une espèce végétale de la famille des Malvaceae. Cette plante annuelle herbacée ou arbuste pérenne se retrouve dans la plupart des régions sèches d'Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa tige, souvent ligneuse à la base, a la forme d'un tube de couleur rougeâtre à verte, pouvant atteindre jusqu'à 2 mètres de haut. Les fleurs en petites glomérules sont orangées, et comprennent 5 à 13 étamines. Le fruit est indéhiscent, sous forme de capsule ovoïde épineuse longue de 4 mm. La germination a lieu de fin juin à fin septembre suivie de la floraison avec la diminution de la photopériode [3].
-L'aire de répartition de Triumfetta pentandra est large. On la trouve au niveau de la mer jusqu'à 1700 mètres d'altitude.  Elle pousse dans l'ensemble des zones tropicales, depuis le Cap Vert, la Mauritanie, le Cameroun et le Sénégal jusqu’en Érythrée et en Éthiopie, et vers le sud jusqu’en Namibie, au Botswana, au Zimbabwe, au Mozambique, à Madagascar, à l’île de la Réunion et à l’île Maurice [4]. Elle est présente en forêt, dans les zones marécageuses mais également dans les zones cultivées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa tige, souvent ligneuse à la base, a la forme d'un tube de couleur rougeâtre à verte, pouvant atteindre jusqu'à 2 mètres de haut. Les fleurs en petites glomérules sont orangées, et comprennent 5 à 13 étamines. Le fruit est indéhiscent, sous forme de capsule ovoïde épineuse longue de 4 mm. La germination a lieu de fin juin à fin septembre suivie de la floraison avec la diminution de la photopériode .
+L'aire de répartition de Triumfetta pentandra est large. On la trouve au niveau de la mer jusqu'à 1700 mètres d'altitude.  Elle pousse dans l'ensemble des zones tropicales, depuis le Cap Vert, la Mauritanie, le Cameroun et le Sénégal jusqu’en Érythrée et en Éthiopie, et vers le sud jusqu’en Namibie, au Botswana, au Zimbabwe, au Mozambique, à Madagascar, à l’île de la Réunion et à l’île Maurice . Elle est présente en forêt, dans les zones marécageuses mais également dans les zones cultivées.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si Triumfetta pentandra est parfois considérée comme une adventice, elle constitue aussi une source de mucilage, de fibre, ainsi qu'un précieux remède contre de nombreuses pathologies. 
 Les fibres libériennes sont utilisées dans la confection des lignes de pêche, de cordages et de ficelles. Une fois cuites, les feuilles sont consommées comme des légumes tandis que l'écorce des pousses vertes est une source de mucilage donnant aux soupes et aux sauces une consistance gluante. Au Cameroun, la sauce obtenue à partir de cette plante est appelée Nkui. Le mucilage issu des espèces de Triumfetta possède une valeur énergétique élevée, il est de ce fait utilisé dans l'alimentation infantile.
@@ -577,11 +593,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 août 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 août 2017) :
 variété Triumfetta pentandra var. homoiotrichia
-Selon Tropicos                                           (1 août 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Triumfetta pentandra var. homoitrichia Chiov.
 variété Triumfetta pentandra var. pentandra</t>
         </is>
